--- a/SANDWICH_EXCEL.xlsx
+++ b/SANDWICH_EXCEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\archivos urp\IO\proyecto\avance full ver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Documents\GitHub\PROYECTO_IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF833DE8-77BB-43C0-A0F3-DA9EE0FDC822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A70553-880E-48FA-9EF1-8BF5F8C43011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SANDWICH" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,8 +727,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,14 +748,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,14 +1007,14 @@
   </sheetPr>
   <dimension ref="B3:S978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="98" t="s">
+    <row r="3" spans="2:13" ht="15" customHeight="1">
+      <c r="B3" s="91" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="92"/>
@@ -1024,7 +1024,7 @@
       <c r="G3" s="92"/>
       <c r="H3" s="92"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="14.4">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1045,8 +1045,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="99" t="s">
+    <row r="5" spans="2:13" ht="14.4">
+      <c r="B5" s="93" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1078,8 +1078,8 @@
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="100"/>
+    <row r="6" spans="2:13" ht="14.4">
+      <c r="B6" s="94"/>
       <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
@@ -1109,8 +1109,8 @@
       </c>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="101"/>
+    <row r="7" spans="2:13" ht="14.4">
+      <c r="B7" s="95"/>
       <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
@@ -1140,8 +1140,8 @@
       </c>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="99" t="s">
+    <row r="8" spans="2:13" ht="14.4">
+      <c r="B8" s="93" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -1173,8 +1173,8 @@
       </c>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="100"/>
+    <row r="9" spans="2:13" ht="14.4">
+      <c r="B9" s="94"/>
       <c r="C9" s="28" t="s">
         <v>12</v>
       </c>
@@ -1204,8 +1204,8 @@
       </c>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
+    <row r="10" spans="2:13" ht="14.4">
+      <c r="B10" s="95"/>
       <c r="C10" s="32" t="s">
         <v>14</v>
       </c>
@@ -1235,8 +1235,8 @@
       </c>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="99" t="s">
+    <row r="11" spans="2:13" ht="14.4">
+      <c r="B11" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -1262,8 +1262,8 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
+    <row r="12" spans="2:13" ht="14.4">
+      <c r="B12" s="94"/>
       <c r="C12" s="43" t="s">
         <v>12</v>
       </c>
@@ -1295,8 +1295,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="101"/>
+    <row r="13" spans="2:13" ht="14.4">
+      <c r="B13" s="95"/>
       <c r="C13" s="50" t="s">
         <v>14</v>
       </c>
@@ -1328,8 +1328,8 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="99" t="s">
+    <row r="14" spans="2:13" ht="14.4">
+      <c r="B14" s="93" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -1363,8 +1363,8 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="100"/>
+    <row r="15" spans="2:13" ht="14.4">
+      <c r="B15" s="94"/>
       <c r="C15" s="58" t="s">
         <v>12</v>
       </c>
@@ -1396,8 +1396,8 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
+    <row r="16" spans="2:13" ht="14.4">
+      <c r="B16" s="94"/>
       <c r="C16" s="62" t="s">
         <v>14</v>
       </c>
@@ -1429,8 +1429,8 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="99" t="s">
+    <row r="17" spans="2:16" ht="14.4">
+      <c r="B17" s="93" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="66" t="s">
@@ -1464,8 +1464,8 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
+    <row r="18" spans="2:16" ht="14.4">
+      <c r="B18" s="94"/>
       <c r="C18" s="70" t="s">
         <v>12</v>
       </c>
@@ -1485,8 +1485,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="101"/>
+    <row r="19" spans="2:16" ht="14.4">
+      <c r="B19" s="95"/>
       <c r="C19" s="74" t="s">
         <v>14</v>
       </c>
@@ -1506,8 +1506,8 @@
         <v>470</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="98" t="s">
+    <row r="22" spans="2:16" ht="18">
+      <c r="B22" s="91" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="92"/>
@@ -1517,7 +1517,7 @@
       <c r="G22" s="92"/>
       <c r="H22" s="92"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="14.4">
       <c r="B23" s="1"/>
       <c r="C23" s="78" t="s">
         <v>1</v>
@@ -1559,8 +1559,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="96" t="s">
+    <row r="24" spans="2:16" ht="14.4">
+      <c r="B24" s="100" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1581,7 +1581,7 @@
       <c r="H24" s="8">
         <v>260</v>
       </c>
-      <c r="J24" s="93" t="s">
+      <c r="J24" s="97" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="81" t="s">
@@ -1603,8 +1603,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="94"/>
+    <row r="25" spans="2:16" ht="14.4">
+      <c r="B25" s="98"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="H25" s="16">
         <v>350</v>
       </c>
-      <c r="J25" s="94"/>
+      <c r="J25" s="98"/>
       <c r="K25" s="84" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1643,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="95"/>
+    <row r="26" spans="2:16" ht="14.4">
+      <c r="B26" s="99"/>
       <c r="C26" s="20" t="s">
         <v>14</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="H26" s="23">
         <v>440</v>
       </c>
-      <c r="J26" s="94"/>
+      <c r="J26" s="98"/>
       <c r="K26" s="84" t="s">
         <v>4</v>
       </c>
@@ -1683,8 +1683,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="96" t="s">
+    <row r="27" spans="2:16" ht="14.4">
+      <c r="B27" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -1705,7 +1705,7 @@
       <c r="H27" s="27">
         <v>290</v>
       </c>
-      <c r="J27" s="94"/>
+      <c r="J27" s="98"/>
       <c r="K27" s="84" t="s">
         <v>5</v>
       </c>
@@ -1725,8 +1725,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="94"/>
+    <row r="28" spans="2:16" ht="14.4">
+      <c r="B28" s="98"/>
       <c r="C28" s="28" t="s">
         <v>12</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="H28" s="31">
         <v>250</v>
       </c>
-      <c r="J28" s="95"/>
+      <c r="J28" s="99"/>
       <c r="K28" s="87" t="s">
         <v>6</v>
       </c>
@@ -1765,8 +1765,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="95"/>
+    <row r="29" spans="2:16" ht="14.4">
+      <c r="B29" s="99"/>
       <c r="C29" s="32" t="s">
         <v>14</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="H29" s="35">
         <v>4780</v>
       </c>
-      <c r="J29" s="93" t="s">
+      <c r="J29" s="97" t="s">
         <v>12</v>
       </c>
       <c r="K29" s="81" t="s">
@@ -1807,8 +1807,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="96" t="s">
+    <row r="30" spans="2:16" ht="14.4">
+      <c r="B30" s="100" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="39" t="s">
@@ -1829,7 +1829,7 @@
       <c r="H30" s="42">
         <v>260</v>
       </c>
-      <c r="J30" s="94"/>
+      <c r="J30" s="98"/>
       <c r="K30" s="84" t="s">
         <v>3</v>
       </c>
@@ -1849,8 +1849,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="94"/>
+    <row r="31" spans="2:16" ht="14.4">
+      <c r="B31" s="98"/>
       <c r="C31" s="43" t="s">
         <v>12</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="H31" s="46">
         <v>250</v>
       </c>
-      <c r="J31" s="94"/>
+      <c r="J31" s="98"/>
       <c r="K31" s="84" t="s">
         <v>4</v>
       </c>
@@ -1889,8 +1889,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="95"/>
+    <row r="32" spans="2:16" ht="14.4">
+      <c r="B32" s="99"/>
       <c r="C32" s="50" t="s">
         <v>14</v>
       </c>
@@ -1909,7 +1909,7 @@
       <c r="H32" s="53">
         <v>4580</v>
       </c>
-      <c r="J32" s="94"/>
+      <c r="J32" s="98"/>
       <c r="K32" s="84" t="s">
         <v>5</v>
       </c>
@@ -1929,8 +1929,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="96" t="s">
+    <row r="33" spans="2:16" ht="14.4">
+      <c r="B33" s="100" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="54" t="s">
@@ -1951,7 +1951,7 @@
       <c r="H33" s="57">
         <v>250</v>
       </c>
-      <c r="J33" s="95"/>
+      <c r="J33" s="99"/>
       <c r="K33" s="87" t="s">
         <v>6</v>
       </c>
@@ -1971,8 +1971,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="94"/>
+    <row r="34" spans="2:16" ht="14.4">
+      <c r="B34" s="98"/>
       <c r="C34" s="58" t="s">
         <v>12</v>
       </c>
@@ -1991,7 +1991,7 @@
       <c r="H34" s="61">
         <v>400</v>
       </c>
-      <c r="J34" s="97" t="s">
+      <c r="J34" s="101" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="84" t="s">
@@ -2013,8 +2013,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="94"/>
+    <row r="35" spans="2:16" ht="14.4">
+      <c r="B35" s="98"/>
       <c r="C35" s="62" t="s">
         <v>14</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="H35" s="65">
         <v>460</v>
       </c>
-      <c r="J35" s="94"/>
+      <c r="J35" s="98"/>
       <c r="K35" s="84" t="s">
         <v>3</v>
       </c>
@@ -2053,8 +2053,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="96" t="s">
+    <row r="36" spans="2:16" ht="14.4">
+      <c r="B36" s="100" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="66" t="s">
@@ -2075,7 +2075,7 @@
       <c r="H36" s="69">
         <v>230</v>
       </c>
-      <c r="J36" s="94"/>
+      <c r="J36" s="98"/>
       <c r="K36" s="84" t="s">
         <v>4</v>
       </c>
@@ -2095,8 +2095,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="94"/>
+    <row r="37" spans="2:16" ht="14.4">
+      <c r="B37" s="98"/>
       <c r="C37" s="70" t="s">
         <v>12</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="H37" s="73">
         <v>400</v>
       </c>
-      <c r="J37" s="94"/>
+      <c r="J37" s="98"/>
       <c r="K37" s="84" t="s">
         <v>5</v>
       </c>
@@ -2135,8 +2135,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="95"/>
+    <row r="38" spans="2:16" ht="14.4">
+      <c r="B38" s="99"/>
       <c r="C38" s="74" t="s">
         <v>14</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="H38" s="77">
         <v>460</v>
       </c>
-      <c r="J38" s="95"/>
+      <c r="J38" s="99"/>
       <c r="K38" s="87" t="s">
         <v>6</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="903" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="903" spans="16:19" ht="14.4">
       <c r="P903" s="90" t="s">
         <v>24</v>
       </c>
@@ -2189,8 +2189,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P904" s="91" t="s">
+    <row r="904" spans="16:19" ht="14.4">
+      <c r="P904" s="96" t="s">
         <v>7</v>
       </c>
       <c r="Q904" s="85" t="s">
@@ -2199,11 +2199,11 @@
       <c r="R904" s="85">
         <v>300</v>
       </c>
-      <c r="S904" s="91" t="s">
+      <c r="S904" s="96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="905" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="905" spans="16:19" ht="14.4">
       <c r="P905" s="92"/>
       <c r="Q905" s="85" t="s">
         <v>3</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="S905" s="92"/>
     </row>
-    <row r="906" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="906" spans="16:19" ht="14.4">
       <c r="P906" s="92"/>
       <c r="Q906" s="85" t="s">
         <v>4</v>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="S906" s="92"/>
     </row>
-    <row r="907" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="907" spans="16:19" ht="14.4">
       <c r="P907" s="92"/>
       <c r="Q907" s="85" t="s">
         <v>5</v>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="S907" s="92"/>
     </row>
-    <row r="908" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="908" spans="16:19" ht="14.4">
       <c r="P908" s="92"/>
       <c r="Q908" s="85" t="s">
         <v>6</v>
@@ -2243,8 +2243,8 @@
       </c>
       <c r="S908" s="92"/>
     </row>
-    <row r="909" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P909" s="91" t="s">
+    <row r="909" spans="16:19" ht="14.4">
+      <c r="P909" s="96" t="s">
         <v>15</v>
       </c>
       <c r="Q909" s="85" t="s">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="S909" s="92"/>
     </row>
-    <row r="910" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="910" spans="16:19" ht="14.4">
       <c r="P910" s="92"/>
       <c r="Q910" s="85" t="s">
         <v>3</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="S910" s="92"/>
     </row>
-    <row r="911" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="911" spans="16:19" ht="14.4">
       <c r="P911" s="92"/>
       <c r="Q911" s="85" t="s">
         <v>4</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="S911" s="92"/>
     </row>
-    <row r="912" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="912" spans="16:19" ht="14.4">
       <c r="P912" s="92"/>
       <c r="Q912" s="85" t="s">
         <v>5</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="S912" s="92"/>
     </row>
-    <row r="913" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="913" spans="16:19" ht="14.4">
       <c r="P913" s="92"/>
       <c r="Q913" s="85" t="s">
         <v>6</v>
@@ -2295,8 +2295,8 @@
       </c>
       <c r="S913" s="92"/>
     </row>
-    <row r="914" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P914" s="91" t="s">
+    <row r="914" spans="16:19" ht="14.4">
+      <c r="P914" s="96" t="s">
         <v>16</v>
       </c>
       <c r="Q914" s="85" t="s">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="S914" s="92"/>
     </row>
-    <row r="915" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="915" spans="16:19" ht="14.4">
       <c r="P915" s="92"/>
       <c r="Q915" s="85" t="s">
         <v>3</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="S915" s="92"/>
     </row>
-    <row r="916" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="916" spans="16:19" ht="14.4">
       <c r="P916" s="92"/>
       <c r="Q916" s="85" t="s">
         <v>4</v>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="S916" s="92"/>
     </row>
-    <row r="917" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="917" spans="16:19" ht="14.4">
       <c r="P917" s="92"/>
       <c r="Q917" s="85" t="s">
         <v>5</v>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="S917" s="92"/>
     </row>
-    <row r="918" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="918" spans="16:19" ht="14.4">
       <c r="P918" s="92"/>
       <c r="Q918" s="85" t="s">
         <v>6</v>
@@ -2347,8 +2347,8 @@
       </c>
       <c r="S918" s="92"/>
     </row>
-    <row r="919" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P919" s="91" t="s">
+    <row r="919" spans="16:19" ht="14.4">
+      <c r="P919" s="96" t="s">
         <v>21</v>
       </c>
       <c r="Q919" s="85" t="s">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="S919" s="92"/>
     </row>
-    <row r="920" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="920" spans="16:19" ht="14.4">
       <c r="P920" s="92"/>
       <c r="Q920" s="85" t="s">
         <v>3</v>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="S920" s="92"/>
     </row>
-    <row r="921" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="921" spans="16:19" ht="14.4">
       <c r="P921" s="92"/>
       <c r="Q921" s="85" t="s">
         <v>4</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="S921" s="92"/>
     </row>
-    <row r="922" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="922" spans="16:19" ht="14.4">
       <c r="P922" s="92"/>
       <c r="Q922" s="85" t="s">
         <v>5</v>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="S922" s="92"/>
     </row>
-    <row r="923" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="923" spans="16:19" ht="14.4">
       <c r="P923" s="92"/>
       <c r="Q923" s="85" t="s">
         <v>6</v>
@@ -2399,8 +2399,8 @@
       </c>
       <c r="S923" s="92"/>
     </row>
-    <row r="924" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P924" s="91" t="s">
+    <row r="924" spans="16:19" ht="14.4">
+      <c r="P924" s="96" t="s">
         <v>22</v>
       </c>
       <c r="Q924" s="85" t="s">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="S924" s="92"/>
     </row>
-    <row r="925" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="925" spans="16:19" ht="14.4">
       <c r="P925" s="92"/>
       <c r="Q925" s="85" t="s">
         <v>3</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="S925" s="92"/>
     </row>
-    <row r="926" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="926" spans="16:19" ht="14.4">
       <c r="P926" s="92"/>
       <c r="Q926" s="85" t="s">
         <v>4</v>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="S926" s="92"/>
     </row>
-    <row r="927" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="927" spans="16:19" ht="14.4">
       <c r="P927" s="92"/>
       <c r="Q927" s="85" t="s">
         <v>5</v>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="S927" s="92"/>
     </row>
-    <row r="928" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="928" spans="16:19" ht="14.4">
       <c r="P928" s="92"/>
       <c r="Q928" s="85" t="s">
         <v>6</v>
@@ -2451,8 +2451,8 @@
       </c>
       <c r="S928" s="92"/>
     </row>
-    <row r="929" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P929" s="91" t="s">
+    <row r="929" spans="16:19" ht="14.4">
+      <c r="P929" s="96" t="s">
         <v>7</v>
       </c>
       <c r="Q929" s="85" t="s">
@@ -2461,11 +2461,11 @@
       <c r="R929" s="85">
         <v>320</v>
       </c>
-      <c r="S929" s="91" t="s">
+      <c r="S929" s="96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="930" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="930" spans="16:19" ht="14.4">
       <c r="P930" s="92"/>
       <c r="Q930" s="85" t="s">
         <v>3</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="S930" s="92"/>
     </row>
-    <row r="931" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="931" spans="16:19" ht="14.4">
       <c r="P931" s="92"/>
       <c r="Q931" s="85" t="s">
         <v>4</v>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="S931" s="92"/>
     </row>
-    <row r="932" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="932" spans="16:19" ht="14.4">
       <c r="P932" s="92"/>
       <c r="Q932" s="85" t="s">
         <v>5</v>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="S932" s="92"/>
     </row>
-    <row r="933" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="933" spans="16:19" ht="14.4">
       <c r="P933" s="92"/>
       <c r="Q933" s="85" t="s">
         <v>6</v>
@@ -2505,8 +2505,8 @@
       </c>
       <c r="S933" s="92"/>
     </row>
-    <row r="934" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P934" s="91" t="s">
+    <row r="934" spans="16:19" ht="14.4">
+      <c r="P934" s="96" t="s">
         <v>15</v>
       </c>
       <c r="Q934" s="85" t="s">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="S934" s="92"/>
     </row>
-    <row r="935" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="935" spans="16:19" ht="14.4">
       <c r="P935" s="92"/>
       <c r="Q935" s="85" t="s">
         <v>3</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="S935" s="92"/>
     </row>
-    <row r="936" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="936" spans="16:19" ht="14.4">
       <c r="P936" s="92"/>
       <c r="Q936" s="85" t="s">
         <v>4</v>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="S936" s="92"/>
     </row>
-    <row r="937" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="937" spans="16:19" ht="14.4">
       <c r="P937" s="92"/>
       <c r="Q937" s="85" t="s">
         <v>5</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="S937" s="92"/>
     </row>
-    <row r="938" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="938" spans="16:19" ht="14.4">
       <c r="P938" s="92"/>
       <c r="Q938" s="85" t="s">
         <v>6</v>
@@ -2557,8 +2557,8 @@
       </c>
       <c r="S938" s="92"/>
     </row>
-    <row r="939" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P939" s="91" t="s">
+    <row r="939" spans="16:19" ht="14.4">
+      <c r="P939" s="96" t="s">
         <v>16</v>
       </c>
       <c r="Q939" s="85" t="s">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="S939" s="92"/>
     </row>
-    <row r="940" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="940" spans="16:19" ht="14.4">
       <c r="P940" s="92"/>
       <c r="Q940" s="85" t="s">
         <v>3</v>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="S940" s="92"/>
     </row>
-    <row r="941" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="941" spans="16:19" ht="14.4">
       <c r="P941" s="92"/>
       <c r="Q941" s="85" t="s">
         <v>4</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="S941" s="92"/>
     </row>
-    <row r="942" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="942" spans="16:19" ht="14.4">
       <c r="P942" s="92"/>
       <c r="Q942" s="85" t="s">
         <v>5</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="S942" s="92"/>
     </row>
-    <row r="943" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="943" spans="16:19" ht="14.4">
       <c r="P943" s="92"/>
       <c r="Q943" s="85" t="s">
         <v>6</v>
@@ -2609,8 +2609,8 @@
       </c>
       <c r="S943" s="92"/>
     </row>
-    <row r="944" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P944" s="91" t="s">
+    <row r="944" spans="16:19" ht="14.4">
+      <c r="P944" s="96" t="s">
         <v>21</v>
       </c>
       <c r="Q944" s="85" t="s">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="S944" s="92"/>
     </row>
-    <row r="945" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="945" spans="16:19" ht="14.4">
       <c r="P945" s="92"/>
       <c r="Q945" s="85" t="s">
         <v>3</v>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="S945" s="92"/>
     </row>
-    <row r="946" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="946" spans="16:19" ht="14.4">
       <c r="P946" s="92"/>
       <c r="Q946" s="85" t="s">
         <v>4</v>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="S946" s="92"/>
     </row>
-    <row r="947" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="947" spans="16:19" ht="14.4">
       <c r="P947" s="92"/>
       <c r="Q947" s="85" t="s">
         <v>5</v>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="S947" s="92"/>
     </row>
-    <row r="948" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="948" spans="16:19" ht="14.4">
       <c r="P948" s="92"/>
       <c r="Q948" s="85" t="s">
         <v>6</v>
@@ -2661,8 +2661,8 @@
       </c>
       <c r="S948" s="92"/>
     </row>
-    <row r="949" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P949" s="91" t="s">
+    <row r="949" spans="16:19" ht="14.4">
+      <c r="P949" s="96" t="s">
         <v>22</v>
       </c>
       <c r="Q949" s="85" t="s">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="S949" s="92"/>
     </row>
-    <row r="950" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="950" spans="16:19" ht="14.4">
       <c r="P950" s="92"/>
       <c r="Q950" s="85" t="s">
         <v>3</v>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="S950" s="92"/>
     </row>
-    <row r="951" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="951" spans="16:19" ht="14.4">
       <c r="P951" s="92"/>
       <c r="Q951" s="85" t="s">
         <v>4</v>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="S951" s="92"/>
     </row>
-    <row r="952" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="952" spans="16:19" ht="14.4">
       <c r="P952" s="92"/>
       <c r="Q952" s="85" t="s">
         <v>5</v>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="S952" s="92"/>
     </row>
-    <row r="953" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="953" spans="16:19" ht="14.4">
       <c r="P953" s="92"/>
       <c r="Q953" s="85" t="s">
         <v>6</v>
@@ -2713,8 +2713,8 @@
       </c>
       <c r="S953" s="92"/>
     </row>
-    <row r="954" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P954" s="91" t="s">
+    <row r="954" spans="16:19" ht="14.4">
+      <c r="P954" s="96" t="s">
         <v>7</v>
       </c>
       <c r="Q954" s="85" t="s">
@@ -2723,11 +2723,11 @@
       <c r="R954" s="85">
         <v>340</v>
       </c>
-      <c r="S954" s="91" t="s">
+      <c r="S954" s="96" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="955" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="955" spans="16:19" ht="14.4">
       <c r="P955" s="92"/>
       <c r="Q955" s="85" t="s">
         <v>3</v>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="S955" s="92"/>
     </row>
-    <row r="956" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="956" spans="16:19" ht="14.4">
       <c r="P956" s="92"/>
       <c r="Q956" s="85" t="s">
         <v>4</v>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="S956" s="92"/>
     </row>
-    <row r="957" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="957" spans="16:19" ht="14.4">
       <c r="P957" s="92"/>
       <c r="Q957" s="85" t="s">
         <v>5</v>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="S957" s="92"/>
     </row>
-    <row r="958" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="958" spans="16:19" ht="14.4">
       <c r="P958" s="92"/>
       <c r="Q958" s="85" t="s">
         <v>6</v>
@@ -2767,8 +2767,8 @@
       </c>
       <c r="S958" s="92"/>
     </row>
-    <row r="959" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P959" s="91" t="s">
+    <row r="959" spans="16:19" ht="14.4">
+      <c r="P959" s="96" t="s">
         <v>15</v>
       </c>
       <c r="Q959" s="85" t="s">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="S959" s="92"/>
     </row>
-    <row r="960" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="960" spans="16:19" ht="14.4">
       <c r="P960" s="92"/>
       <c r="Q960" s="85" t="s">
         <v>3</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="S960" s="92"/>
     </row>
-    <row r="961" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="961" spans="16:19" ht="14.4">
       <c r="P961" s="92"/>
       <c r="Q961" s="85" t="s">
         <v>4</v>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="S961" s="92"/>
     </row>
-    <row r="962" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="962" spans="16:19" ht="14.4">
       <c r="P962" s="92"/>
       <c r="Q962" s="85" t="s">
         <v>5</v>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="S962" s="92"/>
     </row>
-    <row r="963" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="963" spans="16:19" ht="14.4">
       <c r="P963" s="92"/>
       <c r="Q963" s="85" t="s">
         <v>6</v>
@@ -2819,8 +2819,8 @@
       </c>
       <c r="S963" s="92"/>
     </row>
-    <row r="964" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P964" s="91" t="s">
+    <row r="964" spans="16:19" ht="14.4">
+      <c r="P964" s="96" t="s">
         <v>16</v>
       </c>
       <c r="Q964" s="85" t="s">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="S964" s="92"/>
     </row>
-    <row r="965" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="965" spans="16:19" ht="14.4">
       <c r="P965" s="92"/>
       <c r="Q965" s="85" t="s">
         <v>3</v>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="S965" s="92"/>
     </row>
-    <row r="966" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="966" spans="16:19" ht="14.4">
       <c r="P966" s="92"/>
       <c r="Q966" s="85" t="s">
         <v>4</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="S966" s="92"/>
     </row>
-    <row r="967" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="967" spans="16:19" ht="14.4">
       <c r="P967" s="92"/>
       <c r="Q967" s="85" t="s">
         <v>5</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="S967" s="92"/>
     </row>
-    <row r="968" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="968" spans="16:19" ht="14.4">
       <c r="P968" s="92"/>
       <c r="Q968" s="85" t="s">
         <v>6</v>
@@ -2871,8 +2871,8 @@
       </c>
       <c r="S968" s="92"/>
     </row>
-    <row r="969" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P969" s="91" t="s">
+    <row r="969" spans="16:19" ht="14.4">
+      <c r="P969" s="96" t="s">
         <v>21</v>
       </c>
       <c r="Q969" s="85" t="s">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="S969" s="92"/>
     </row>
-    <row r="970" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="970" spans="16:19" ht="14.4">
       <c r="P970" s="92"/>
       <c r="Q970" s="85" t="s">
         <v>3</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="S970" s="92"/>
     </row>
-    <row r="971" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="971" spans="16:19" ht="14.4">
       <c r="P971" s="92"/>
       <c r="Q971" s="85" t="s">
         <v>4</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="S971" s="92"/>
     </row>
-    <row r="972" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="972" spans="16:19" ht="14.4">
       <c r="P972" s="92"/>
       <c r="Q972" s="85" t="s">
         <v>5</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="S972" s="92"/>
     </row>
-    <row r="973" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="973" spans="16:19" ht="14.4">
       <c r="P973" s="92"/>
       <c r="Q973" s="85" t="s">
         <v>6</v>
@@ -2923,8 +2923,8 @@
       </c>
       <c r="S973" s="92"/>
     </row>
-    <row r="974" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P974" s="91" t="s">
+    <row r="974" spans="16:19" ht="14.4">
+      <c r="P974" s="96" t="s">
         <v>22</v>
       </c>
       <c r="Q974" s="85" t="s">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="S974" s="92"/>
     </row>
-    <row r="975" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="975" spans="16:19" ht="14.4">
       <c r="P975" s="92"/>
       <c r="Q975" s="85" t="s">
         <v>3</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="S975" s="92"/>
     </row>
-    <row r="976" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="976" spans="16:19" ht="14.4">
       <c r="P976" s="92"/>
       <c r="Q976" s="85" t="s">
         <v>4</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="S976" s="92"/>
     </row>
-    <row r="977" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="977" spans="16:19" ht="14.4">
       <c r="P977" s="92"/>
       <c r="Q977" s="85" t="s">
         <v>5</v>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="S977" s="92"/>
     </row>
-    <row r="978" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="978" spans="16:19" ht="14.4">
       <c r="P978" s="92"/>
       <c r="Q978" s="85" t="s">
         <v>6</v>
@@ -2977,23 +2977,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="P964:P968"/>
-    <mergeCell ref="P959:P963"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
     <mergeCell ref="P969:P973"/>
     <mergeCell ref="P974:P978"/>
     <mergeCell ref="S904:S928"/>
@@ -3010,6 +2993,23 @@
     <mergeCell ref="P914:P918"/>
     <mergeCell ref="P919:P923"/>
     <mergeCell ref="P954:P958"/>
+    <mergeCell ref="P964:P968"/>
+    <mergeCell ref="P959:P963"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
